--- a/금융지표 보고_210929.xlsx
+++ b/금융지표 보고_210929.xlsx
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>금융시장 동향 (2021.09.28.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Call</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,6 +240,10 @@
   </si>
   <si>
     <t>산금채(3년)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융시장 동향 (2021.09.29.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2231,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2246,7 +2246,7 @@
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="G1" s="26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H1" s="27"/>
       <c r="I1" s="28"/>
@@ -2344,10 +2344,10 @@
         <v>8</v>
       </c>
       <c r="L7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>10</v>
@@ -20430,8 +20430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U188"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -20493,13 +20493,13 @@
         <v>14</v>
       </c>
       <c r="S1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="11" customHeight="1" x14ac:dyDescent="0.45">
@@ -20721,9 +20721,7 @@
       <c r="I8" s="7">
         <v>17.75</v>
       </c>
-      <c r="J8" s="7">
-        <v>2300</v>
-      </c>
+      <c r="J8" s="7"/>
       <c r="K8" s="7">
         <v>1.02</v>
       </c>
@@ -20833,9 +20831,7 @@
       <c r="I10" s="7">
         <v>20.81</v>
       </c>
-      <c r="J10" s="7">
-        <v>2100</v>
-      </c>
+      <c r="J10" s="7"/>
       <c r="K10" s="7">
         <v>1.01</v>
       </c>
@@ -21110,9 +21106,7 @@
       <c r="I15" s="7">
         <v>20.95</v>
       </c>
-      <c r="J15" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J15" s="7"/>
       <c r="K15" s="7">
         <v>0.96</v>
       </c>
@@ -21650,9 +21644,7 @@
       <c r="I25" s="7">
         <v>16.39</v>
       </c>
-      <c r="J25" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J25" s="7"/>
       <c r="K25" s="7">
         <v>0.92</v>
       </c>
@@ -21927,9 +21919,7 @@
       <c r="I30" s="7">
         <v>18.559999999999999</v>
       </c>
-      <c r="J30" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J30" s="7"/>
       <c r="K30" s="7">
         <v>0.76</v>
       </c>
@@ -22149,9 +22139,7 @@
       <c r="I34" s="7">
         <v>15.45</v>
       </c>
-      <c r="J34" s="7">
-        <v>2000</v>
-      </c>
+      <c r="J34" s="7"/>
       <c r="K34" s="7">
         <v>0.72</v>
       </c>
@@ -22426,9 +22414,7 @@
       <c r="I39" s="7">
         <v>16.149999999999999</v>
       </c>
-      <c r="J39" s="7">
-        <v>1800</v>
-      </c>
+      <c r="J39" s="7"/>
       <c r="K39" s="7">
         <v>0.7</v>
       </c>
@@ -22703,9 +22689,7 @@
       <c r="I44" s="7">
         <v>18.239999999999998</v>
       </c>
-      <c r="J44" s="7">
-        <v>1700</v>
-      </c>
+      <c r="J44" s="7"/>
       <c r="K44" s="7">
         <v>0.7</v>
       </c>
@@ -22980,9 +22964,7 @@
       <c r="I49" s="7">
         <v>17.2</v>
       </c>
-      <c r="J49" s="7">
-        <v>1600</v>
-      </c>
+      <c r="J49" s="7"/>
       <c r="K49" s="7">
         <v>0.7</v>
       </c>
@@ -23257,9 +23239,7 @@
       <c r="I54" s="7">
         <v>18.45</v>
       </c>
-      <c r="J54" s="7">
-        <v>1800</v>
-      </c>
+      <c r="J54" s="7"/>
       <c r="K54" s="7">
         <v>0.7</v>
       </c>
@@ -23534,9 +23514,7 @@
       <c r="I59" s="7">
         <v>16.18</v>
       </c>
-      <c r="J59" s="7">
-        <v>2000</v>
-      </c>
+      <c r="J59" s="7"/>
       <c r="K59" s="7">
         <v>0.68</v>
       </c>
@@ -23801,9 +23779,7 @@
       <c r="I64" s="7">
         <v>15.07</v>
       </c>
-      <c r="J64" s="7">
-        <v>2200</v>
-      </c>
+      <c r="J64" s="7"/>
       <c r="K64" s="7">
         <v>0.69</v>
       </c>
@@ -24078,9 +24054,7 @@
       <c r="I69" s="7">
         <v>15.62</v>
       </c>
-      <c r="J69" s="7">
-        <v>2200</v>
-      </c>
+      <c r="J69" s="7"/>
       <c r="K69" s="7">
         <v>0.67</v>
       </c>
@@ -24355,9 +24329,7 @@
       <c r="I74" s="7">
         <v>20.7</v>
       </c>
-      <c r="J74" s="7">
-        <v>2300</v>
-      </c>
+      <c r="J74" s="7"/>
       <c r="K74" s="7">
         <v>0.66</v>
       </c>
@@ -24632,9 +24604,7 @@
       <c r="I79" s="7">
         <v>15.65</v>
       </c>
-      <c r="J79" s="7">
-        <v>2200</v>
-      </c>
+      <c r="J79" s="7"/>
       <c r="K79" s="7">
         <v>0.66</v>
       </c>
@@ -24909,9 +24879,7 @@
       <c r="I84" s="7">
         <v>16.420000000000002</v>
       </c>
-      <c r="J84" s="7">
-        <v>2000</v>
-      </c>
+      <c r="J84" s="7"/>
       <c r="K84" s="7">
         <v>0.66</v>
       </c>
@@ -25174,9 +25142,7 @@
       <c r="I89" s="7">
         <v>16.760000000000002</v>
       </c>
-      <c r="J89" s="7">
-        <v>2000</v>
-      </c>
+      <c r="J89" s="7"/>
       <c r="K89" s="7">
         <v>0.66</v>
       </c>
@@ -25451,9 +25417,7 @@
       <c r="I94" s="7">
         <v>20.149999999999999</v>
       </c>
-      <c r="J94" s="7">
-        <v>2300</v>
-      </c>
+      <c r="J94" s="7"/>
       <c r="K94" s="7">
         <v>0.66</v>
       </c>
@@ -25673,9 +25637,7 @@
       <c r="I98" s="7">
         <v>18.809999999999999</v>
       </c>
-      <c r="J98" s="7">
-        <v>2700</v>
-      </c>
+      <c r="J98" s="7"/>
       <c r="K98" s="7">
         <v>0.67</v>
       </c>
@@ -25950,9 +25912,7 @@
       <c r="I103" s="7">
         <v>16.690000000000001</v>
       </c>
-      <c r="J103" s="7">
-        <v>3100</v>
-      </c>
+      <c r="J103" s="7"/>
       <c r="K103" s="7">
         <v>0.72</v>
       </c>
@@ -26445,9 +26405,7 @@
       <c r="I112" s="7">
         <v>17.329999999999998</v>
       </c>
-      <c r="J112" s="7">
-        <v>3700</v>
-      </c>
+      <c r="J112" s="7"/>
       <c r="K112" s="7">
         <v>0.73</v>
       </c>
@@ -26502,9 +26460,7 @@
       <c r="I113" s="7">
         <v>18.71</v>
       </c>
-      <c r="J113" s="7">
-        <v>3900</v>
-      </c>
+      <c r="J113" s="7"/>
       <c r="K113" s="7">
         <v>0.73</v>
       </c>
@@ -26614,9 +26570,7 @@
       <c r="I115" s="7">
         <v>18.68</v>
       </c>
-      <c r="J115" s="7">
-        <v>3800</v>
-      </c>
+      <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7">
         <v>0.47</v>
@@ -26667,9 +26621,7 @@
       <c r="I116" s="7">
         <v>17.29</v>
       </c>
-      <c r="J116" s="7">
-        <v>4200</v>
-      </c>
+      <c r="J116" s="7"/>
       <c r="K116" s="7">
         <v>0.73</v>
       </c>
@@ -26724,9 +26676,7 @@
       <c r="I117" s="7">
         <v>16.25</v>
       </c>
-      <c r="J117" s="7">
-        <v>4200</v>
-      </c>
+      <c r="J117" s="7"/>
       <c r="K117" s="7">
         <v>0.73</v>
       </c>
@@ -26781,9 +26731,7 @@
       <c r="I118" s="7">
         <v>16.57</v>
       </c>
-      <c r="J118" s="7">
-        <v>4500</v>
-      </c>
+      <c r="J118" s="7"/>
       <c r="K118" s="7">
         <v>0.73</v>
       </c>
@@ -26838,9 +26786,7 @@
       <c r="I119" s="7">
         <v>16.989999999999998</v>
       </c>
-      <c r="J119" s="7">
-        <v>4700</v>
-      </c>
+      <c r="J119" s="7"/>
       <c r="K119" s="7">
         <v>0.73</v>
       </c>
@@ -26895,9 +26841,7 @@
       <c r="I120" s="7">
         <v>16.649999999999999</v>
       </c>
-      <c r="J120" s="7">
-        <v>5000</v>
-      </c>
+      <c r="J120" s="7"/>
       <c r="K120" s="7">
         <v>0.73</v>
       </c>
@@ -26952,9 +26896,7 @@
       <c r="I121" s="7">
         <v>16.91</v>
       </c>
-      <c r="J121" s="7">
-        <v>5400</v>
-      </c>
+      <c r="J121" s="7"/>
       <c r="K121" s="7">
         <v>0.75</v>
       </c>
@@ -27009,9 +26951,7 @@
       <c r="I122" s="7">
         <v>16.690000000000001</v>
       </c>
-      <c r="J122" s="7">
-        <v>4700</v>
-      </c>
+      <c r="J122" s="7"/>
       <c r="K122" s="7">
         <v>0.75</v>
       </c>
@@ -27066,9 +27006,7 @@
       <c r="I123" s="7">
         <v>16.95</v>
       </c>
-      <c r="J123" s="7">
-        <v>4800</v>
-      </c>
+      <c r="J123" s="7"/>
       <c r="K123" s="7">
         <v>0.75</v>
       </c>
@@ -27123,9 +27061,7 @@
       <c r="I124" s="7">
         <v>17.16</v>
       </c>
-      <c r="J124" s="7">
-        <v>4300</v>
-      </c>
+      <c r="J124" s="7"/>
       <c r="K124" s="7">
         <v>0.75</v>
       </c>
@@ -27180,9 +27116,7 @@
       <c r="I125" s="7">
         <v>18.12</v>
       </c>
-      <c r="J125" s="7">
-        <v>3900</v>
-      </c>
+      <c r="J125" s="7"/>
       <c r="K125" s="7">
         <v>0.75</v>
       </c>
@@ -27237,9 +27171,7 @@
       <c r="I126" s="7">
         <v>17.91</v>
       </c>
-      <c r="J126" s="7">
-        <v>3400</v>
-      </c>
+      <c r="J126" s="7"/>
       <c r="K126" s="7">
         <v>0.75</v>
       </c>
@@ -27286,9 +27218,7 @@
       <c r="I127" s="7">
         <v>17.329999999999998</v>
       </c>
-      <c r="J127" s="7">
-        <v>3400</v>
-      </c>
+      <c r="J127" s="7"/>
       <c r="K127" s="7">
         <v>0.75</v>
       </c>
@@ -27339,9 +27269,7 @@
       <c r="I128" s="7">
         <v>17.329999999999998</v>
       </c>
-      <c r="J128" s="7">
-        <v>3500</v>
-      </c>
+      <c r="J128" s="7"/>
       <c r="K128" s="7">
         <v>0.75</v>
       </c>
@@ -27396,9 +27324,7 @@
       <c r="I129" s="7">
         <v>19.399999999999999</v>
       </c>
-      <c r="J129" s="7">
-        <v>3400</v>
-      </c>
+      <c r="J129" s="7"/>
       <c r="K129" s="7">
         <v>0.75</v>
       </c>
@@ -27453,9 +27379,7 @@
       <c r="I130" s="7">
         <v>19.61</v>
       </c>
-      <c r="J130" s="7">
-        <v>3300</v>
-      </c>
+      <c r="J130" s="7"/>
       <c r="K130" s="7">
         <v>0.75</v>
       </c>
@@ -27510,9 +27434,7 @@
       <c r="I131" s="7">
         <v>20.74</v>
       </c>
-      <c r="J131" s="7">
-        <v>3200</v>
-      </c>
+      <c r="J131" s="7"/>
       <c r="K131" s="7">
         <v>0.75</v>
       </c>
@@ -27567,9 +27489,7 @@
       <c r="I132" s="7">
         <v>18.86</v>
       </c>
-      <c r="J132" s="7">
-        <v>3100</v>
-      </c>
+      <c r="J132" s="7"/>
       <c r="K132" s="7">
         <v>0.75</v>
       </c>
@@ -27624,9 +27544,7 @@
       <c r="I133" s="7">
         <v>19.809999999999999</v>
       </c>
-      <c r="J133" s="7">
-        <v>3000</v>
-      </c>
+      <c r="J133" s="7"/>
       <c r="K133" s="7">
         <v>0.75</v>
       </c>
@@ -27681,9 +27599,7 @@
       <c r="I134" s="7">
         <v>21.2</v>
       </c>
-      <c r="J134" s="7">
-        <v>3200</v>
-      </c>
+      <c r="J134" s="7"/>
       <c r="K134" s="7">
         <v>0.75</v>
       </c>
@@ -27738,9 +27654,7 @@
       <c r="I135" s="7">
         <v>20.3</v>
       </c>
-      <c r="J135" s="7">
-        <v>3200</v>
-      </c>
+      <c r="J135" s="7"/>
       <c r="K135" s="7">
         <v>0.75</v>
       </c>
@@ -27795,9 +27709,7 @@
       <c r="I136" s="7">
         <v>18.88</v>
       </c>
-      <c r="J136" s="7">
-        <v>3100</v>
-      </c>
+      <c r="J136" s="7"/>
       <c r="K136" s="7">
         <v>0.75</v>
       </c>
@@ -27852,9 +27764,7 @@
       <c r="I137" s="7">
         <v>20.95</v>
       </c>
-      <c r="J137" s="7">
-        <v>3400</v>
-      </c>
+      <c r="J137" s="7"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7">
         <v>0.47</v>
@@ -27905,9 +27815,7 @@
       <c r="I138" s="7">
         <v>21.58</v>
       </c>
-      <c r="J138" s="7">
-        <v>3500</v>
-      </c>
+      <c r="J138" s="7"/>
       <c r="K138" s="7">
         <v>0.75</v>
       </c>
@@ -27962,9 +27870,7 @@
       <c r="I139" s="7">
         <v>19.23</v>
       </c>
-      <c r="J139" s="7">
-        <v>3300</v>
-      </c>
+      <c r="J139" s="7"/>
       <c r="K139" s="7">
         <v>0.75</v>
       </c>
@@ -28019,9 +27925,7 @@
       <c r="I140" s="7">
         <v>19.79</v>
       </c>
-      <c r="J140" s="7">
-        <v>3100</v>
-      </c>
+      <c r="J140" s="7"/>
       <c r="K140" s="7">
         <v>0.75</v>
       </c>
@@ -28076,9 +27980,7 @@
       <c r="I141" s="7">
         <v>20.03</v>
       </c>
-      <c r="J141" s="7">
-        <v>3400</v>
-      </c>
+      <c r="J141" s="7"/>
       <c r="K141" s="7">
         <v>0.75</v>
       </c>
@@ -28133,9 +28035,7 @@
       <c r="I142" s="7">
         <v>20.69</v>
       </c>
-      <c r="J142" s="7">
-        <v>3500</v>
-      </c>
+      <c r="J142" s="7"/>
       <c r="K142" s="7">
         <v>0.75</v>
       </c>
@@ -28190,9 +28090,7 @@
       <c r="I143" s="7">
         <v>21.91</v>
       </c>
-      <c r="J143" s="7">
-        <v>4000</v>
-      </c>
+      <c r="J143" s="7"/>
       <c r="K143" s="7">
         <v>0.75</v>
       </c>
@@ -28247,9 +28145,7 @@
       <c r="I144" s="7">
         <v>22.56</v>
       </c>
-      <c r="J144" s="7">
-        <v>3600</v>
-      </c>
+      <c r="J144" s="7"/>
       <c r="K144" s="7">
         <v>0.75</v>
       </c>
@@ -28304,9 +28200,7 @@
       <c r="I145" s="7">
         <v>24.03</v>
       </c>
-      <c r="J145" s="7">
-        <v>3200</v>
-      </c>
+      <c r="J145" s="7"/>
       <c r="K145" s="7">
         <v>0.75</v>
       </c>
@@ -28361,9 +28255,7 @@
       <c r="I146" s="7">
         <v>25.47</v>
       </c>
-      <c r="J146" s="7">
-        <v>2800</v>
-      </c>
+      <c r="J146" s="7"/>
       <c r="K146" s="7">
         <v>0.74</v>
       </c>
@@ -28418,9 +28310,7 @@
       <c r="I147" s="7">
         <v>24.66</v>
       </c>
-      <c r="J147" s="7">
-        <v>2500</v>
-      </c>
+      <c r="J147" s="7"/>
       <c r="K147" s="7">
         <v>0.74</v>
       </c>
@@ -28475,9 +28365,7 @@
       <c r="I148" s="7">
         <v>28.57</v>
       </c>
-      <c r="J148" s="7">
-        <v>2300</v>
-      </c>
+      <c r="J148" s="7"/>
       <c r="K148" s="7">
         <v>0.74</v>
       </c>
@@ -28532,9 +28420,7 @@
       <c r="I149" s="7">
         <v>26.67</v>
       </c>
-      <c r="J149" s="7">
-        <v>2000</v>
-      </c>
+      <c r="J149" s="7"/>
       <c r="K149" s="7">
         <v>0.74</v>
       </c>
@@ -28589,9 +28475,7 @@
       <c r="I150" s="7">
         <v>24.1</v>
       </c>
-      <c r="J150" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J150" s="7"/>
       <c r="K150" s="7">
         <v>0.74</v>
       </c>
@@ -28646,9 +28530,7 @@
       <c r="I151" s="7">
         <v>27.95</v>
       </c>
-      <c r="J151" s="7">
-        <v>1800</v>
-      </c>
+      <c r="J151" s="7"/>
       <c r="K151" s="7">
         <v>0.74</v>
       </c>
@@ -28703,9 +28585,7 @@
       <c r="I152" s="7">
         <v>28.89</v>
       </c>
-      <c r="J152" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J152" s="7"/>
       <c r="K152" s="7">
         <v>0.74</v>
       </c>
@@ -28760,9 +28640,7 @@
       <c r="I153" s="7">
         <v>21.34</v>
       </c>
-      <c r="J153" s="7">
-        <v>1800</v>
-      </c>
+      <c r="J153" s="7"/>
       <c r="K153" s="7">
         <v>0.74</v>
       </c>
@@ -28817,9 +28695,7 @@
       <c r="I154" s="7">
         <v>23.11</v>
       </c>
-      <c r="J154" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J154" s="7"/>
       <c r="K154" s="7">
         <v>0.74</v>
       </c>
@@ -28874,9 +28750,7 @@
       <c r="I155" s="7">
         <v>23.45</v>
       </c>
-      <c r="J155" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J155" s="7"/>
       <c r="K155" s="7">
         <v>0.74</v>
       </c>
@@ -28931,9 +28805,7 @@
       <c r="I156" s="7">
         <v>22.05</v>
       </c>
-      <c r="J156" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J156" s="7"/>
       <c r="K156" s="7">
         <v>0.74</v>
       </c>
@@ -28988,9 +28860,7 @@
       <c r="I157" s="7">
         <v>22.49</v>
       </c>
-      <c r="J157" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J157" s="7"/>
       <c r="K157" s="7">
         <v>0.74</v>
       </c>
@@ -29045,9 +28915,7 @@
       <c r="I158" s="7">
         <v>21.5</v>
       </c>
-      <c r="J158" s="7">
-        <v>1800</v>
-      </c>
+      <c r="J158" s="7"/>
       <c r="K158" s="7">
         <v>0.74</v>
       </c>
@@ -29257,9 +29125,7 @@
       <c r="I162" s="7">
         <v>21.63</v>
       </c>
-      <c r="J162" s="7">
-        <v>1800</v>
-      </c>
+      <c r="J162" s="7"/>
       <c r="K162" s="7">
         <v>0.73</v>
       </c>
@@ -29314,9 +29180,7 @@
       <c r="I163" s="7">
         <v>21.24</v>
       </c>
-      <c r="J163" s="7">
-        <v>1700</v>
-      </c>
+      <c r="J163" s="7"/>
       <c r="K163" s="7">
         <v>0.73</v>
       </c>
@@ -29371,9 +29235,7 @@
       <c r="I164" s="7">
         <v>20.87</v>
       </c>
-      <c r="J164" s="7">
-        <v>1800</v>
-      </c>
+      <c r="J164" s="7"/>
       <c r="K164" s="7">
         <v>0.73</v>
       </c>
@@ -29428,9 +29290,7 @@
       <c r="I165" s="7">
         <v>21.77</v>
       </c>
-      <c r="J165" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J165" s="7"/>
       <c r="K165" s="7">
         <v>0.73</v>
       </c>
@@ -29485,9 +29345,7 @@
       <c r="I166" s="7">
         <v>22.91</v>
       </c>
-      <c r="J166" s="7">
-        <v>1800</v>
-      </c>
+      <c r="J166" s="7"/>
       <c r="K166" s="7">
         <v>0.73</v>
       </c>
@@ -29542,9 +29400,7 @@
       <c r="I167" s="7">
         <v>25.56</v>
       </c>
-      <c r="J167" s="7">
-        <v>1600</v>
-      </c>
+      <c r="J167" s="7"/>
       <c r="K167" s="7">
         <v>0.73</v>
       </c>
@@ -29599,9 +29455,7 @@
       <c r="I168" s="7">
         <v>30.24</v>
       </c>
-      <c r="J168" s="7">
-        <v>1400</v>
-      </c>
+      <c r="J168" s="7"/>
       <c r="K168" s="7">
         <v>0.7</v>
       </c>
@@ -29656,9 +29510,7 @@
       <c r="I169" s="7">
         <v>33.090000000000003</v>
       </c>
-      <c r="J169" s="7">
-        <v>1700</v>
-      </c>
+      <c r="J169" s="7"/>
       <c r="K169" s="7">
         <v>0.7</v>
       </c>
@@ -29713,9 +29565,7 @@
       <c r="I170" s="7">
         <v>30.21</v>
       </c>
-      <c r="J170" s="7">
-        <v>1700</v>
-      </c>
+      <c r="J170" s="7"/>
       <c r="K170" s="7">
         <v>0.7</v>
       </c>
@@ -29770,9 +29620,7 @@
       <c r="I171" s="7">
         <v>37.21</v>
       </c>
-      <c r="J171" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J171" s="7"/>
       <c r="K171" s="7">
         <v>0.7</v>
       </c>
@@ -29827,9 +29675,7 @@
       <c r="I172" s="7">
         <v>23.02</v>
       </c>
-      <c r="J172" s="7">
-        <v>2100</v>
-      </c>
+      <c r="J172" s="7"/>
       <c r="K172" s="7">
         <v>0.69</v>
       </c>
@@ -29884,9 +29730,7 @@
       <c r="I173" s="7">
         <v>23.19</v>
       </c>
-      <c r="J173" s="7">
-        <v>2200</v>
-      </c>
+      <c r="J173" s="7"/>
       <c r="K173" s="7">
         <v>0.69</v>
       </c>
@@ -29941,9 +29785,7 @@
       <c r="I174" s="7">
         <v>21.91</v>
       </c>
-      <c r="J174" s="7">
-        <v>2200</v>
-      </c>
+      <c r="J174" s="7"/>
       <c r="K174" s="7">
         <v>0.69</v>
       </c>
@@ -29998,9 +29840,7 @@
       <c r="I175" s="7">
         <v>21.32</v>
       </c>
-      <c r="J175" s="7">
-        <v>2300</v>
-      </c>
+      <c r="J175" s="7"/>
       <c r="K175" s="7">
         <v>0.69</v>
       </c>
@@ -30055,9 +29895,7 @@
       <c r="I176" s="7">
         <v>21.58</v>
       </c>
-      <c r="J176" s="7">
-        <v>2300</v>
-      </c>
+      <c r="J176" s="7"/>
       <c r="K176" s="7">
         <v>0.69</v>
       </c>
@@ -30112,9 +29950,7 @@
       <c r="I177" s="7">
         <v>23.24</v>
       </c>
-      <c r="J177" s="7">
-        <v>2200</v>
-      </c>
+      <c r="J177" s="7"/>
       <c r="K177" s="7">
         <v>0.69</v>
       </c>
@@ -30161,9 +29997,7 @@
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
-      <c r="J178" s="7">
-        <v>2200</v>
-      </c>
+      <c r="J178" s="7"/>
       <c r="K178" s="7">
         <v>0.69</v>
       </c>
@@ -30216,9 +30050,7 @@
       <c r="I179" s="7">
         <v>24.34</v>
       </c>
-      <c r="J179" s="7">
-        <v>2000</v>
-      </c>
+      <c r="J179" s="7"/>
       <c r="K179" s="7">
         <v>0.67</v>
       </c>
@@ -30273,9 +30105,7 @@
       <c r="I180" s="7">
         <v>23.25</v>
       </c>
-      <c r="J180" s="7">
-        <v>2000</v>
-      </c>
+      <c r="J180" s="7"/>
       <c r="K180" s="7">
         <v>0.67</v>
       </c>
@@ -30330,9 +30160,7 @@
       <c r="I181" s="7">
         <v>22.21</v>
       </c>
-      <c r="J181" s="7">
-        <v>2400</v>
-      </c>
+      <c r="J181" s="7"/>
       <c r="K181" s="7">
         <v>0.67</v>
       </c>
@@ -30387,9 +30215,7 @@
       <c r="I182" s="7">
         <v>23.33</v>
       </c>
-      <c r="J182" s="7">
-        <v>2400</v>
-      </c>
+      <c r="J182" s="7"/>
       <c r="K182" s="7">
         <v>0.66</v>
       </c>
@@ -30444,9 +30270,7 @@
       <c r="I183" s="7">
         <v>24.08</v>
       </c>
-      <c r="J183" s="7">
-        <v>2300</v>
-      </c>
+      <c r="J183" s="7"/>
       <c r="K183" s="7">
         <v>0.66</v>
       </c>
@@ -30501,9 +30325,7 @@
       <c r="I184" s="7">
         <v>21.56</v>
       </c>
-      <c r="J184" s="7">
-        <v>2000</v>
-      </c>
+      <c r="J184" s="7"/>
       <c r="K184" s="7">
         <v>0.66</v>
       </c>
@@ -30558,9 +30380,7 @@
       <c r="I185" s="7">
         <v>22.37</v>
       </c>
-      <c r="J185" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J185" s="7"/>
       <c r="K185" s="7">
         <v>0.66</v>
       </c>
@@ -30615,9 +30435,7 @@
       <c r="I186" s="7">
         <v>25.07</v>
       </c>
-      <c r="J186" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J186" s="7"/>
       <c r="K186" s="7">
         <v>0.66</v>
       </c>
@@ -30672,9 +30490,7 @@
       <c r="I187" s="7">
         <v>25.34</v>
       </c>
-      <c r="J187" s="7">
-        <v>1700</v>
-      </c>
+      <c r="J187" s="7"/>
       <c r="K187" s="7">
         <v>0.66</v>
       </c>
@@ -30729,9 +30545,7 @@
       <c r="I188" s="7">
         <v>26.97</v>
       </c>
-      <c r="J188" s="7">
-        <v>1900</v>
-      </c>
+      <c r="J188" s="7"/>
       <c r="K188" s="7">
         <v>0.66</v>
       </c>
